--- a/natmiOut/OldD4/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H2">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I2">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J2">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.70363425506568</v>
+        <v>2.312813333333333</v>
       </c>
       <c r="N2">
-        <v>1.70363425506568</v>
+        <v>6.93844</v>
       </c>
       <c r="O2">
-        <v>0.2393795294645139</v>
+        <v>0.2584835377141118</v>
       </c>
       <c r="P2">
-        <v>0.2393795294645139</v>
+        <v>0.274740130058117</v>
       </c>
       <c r="Q2">
-        <v>0.9879710256182277</v>
+        <v>2.183891721568889</v>
       </c>
       <c r="R2">
-        <v>0.9879710256182277</v>
+        <v>19.65502549412</v>
       </c>
       <c r="S2">
-        <v>0.08504862916791538</v>
+        <v>0.1065778926425529</v>
       </c>
       <c r="T2">
-        <v>0.08504862916791538</v>
+        <v>0.1210331286627701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H3">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I3">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J3">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.19330489563364</v>
+        <v>3.371056333333333</v>
       </c>
       <c r="N3">
-        <v>3.19330489563364</v>
+        <v>10.113169</v>
       </c>
       <c r="O3">
-        <v>0.4486947953063077</v>
+        <v>0.3767543858015183</v>
       </c>
       <c r="P3">
-        <v>0.4486947953063077</v>
+        <v>0.4004492892292385</v>
       </c>
       <c r="Q3">
-        <v>1.851860341191158</v>
+        <v>3.183145787515222</v>
       </c>
       <c r="R3">
-        <v>1.851860341191158</v>
+        <v>28.648312087637</v>
       </c>
       <c r="S3">
-        <v>0.1594157919056187</v>
+        <v>0.1553433105940231</v>
       </c>
       <c r="T3">
-        <v>0.1594157919056187</v>
+        <v>0.1764126352271314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H4">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I4">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J4">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.681509189493235</v>
+        <v>0.824507</v>
       </c>
       <c r="N4">
-        <v>0.681509189493235</v>
+        <v>2.473521</v>
       </c>
       <c r="O4">
-        <v>0.09575960839102952</v>
+        <v>0.09214815703387902</v>
       </c>
       <c r="P4">
-        <v>0.09575960839102952</v>
+        <v>0.0979435552143542</v>
       </c>
       <c r="Q4">
-        <v>0.3952205885211673</v>
+        <v>0.7785470559703334</v>
       </c>
       <c r="R4">
-        <v>0.3952205885211673</v>
+        <v>7.006923503733</v>
       </c>
       <c r="S4">
-        <v>0.03402222170597417</v>
+        <v>0.03799451398111103</v>
       </c>
       <c r="T4">
-        <v>0.03402222170597417</v>
+        <v>0.04314773716326201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H5">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I5">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J5">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.53842693680656</v>
+        <v>0.8509326666666667</v>
       </c>
       <c r="N5">
-        <v>1.53842693680656</v>
+        <v>2.552798</v>
       </c>
       <c r="O5">
-        <v>0.2161660668381489</v>
+        <v>0.09510152975445622</v>
       </c>
       <c r="P5">
-        <v>0.2161660668381489</v>
+        <v>0.1010826719741183</v>
       </c>
       <c r="Q5">
-        <v>0.8921640511019708</v>
+        <v>0.8034996943171111</v>
       </c>
       <c r="R5">
-        <v>0.8921640511019708</v>
+        <v>7.231497248854001</v>
       </c>
       <c r="S5">
-        <v>0.07680116883148068</v>
+        <v>0.03921224816848221</v>
       </c>
       <c r="T5">
-        <v>0.07680116883148068</v>
+        <v>0.04453063351186465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.660669065824854</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H6">
-        <v>0.660669065824854</v>
+        <v>2.832773</v>
       </c>
       <c r="I6">
-        <v>0.4047589282027066</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J6">
-        <v>0.4047589282027066</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.70363425506568</v>
+        <v>1.588314</v>
       </c>
       <c r="N6">
-        <v>1.70363425506568</v>
+        <v>3.176628</v>
       </c>
       <c r="O6">
-        <v>0.2393795294645139</v>
+        <v>0.1775123896960348</v>
       </c>
       <c r="P6">
-        <v>0.2393795294645139</v>
+        <v>0.1257843535241721</v>
       </c>
       <c r="Q6">
-        <v>1.125538451801464</v>
+        <v>1.499777671574</v>
       </c>
       <c r="R6">
-        <v>1.125538451801464</v>
+        <v>8.998666029443999</v>
       </c>
       <c r="S6">
-        <v>0.09689100177972486</v>
+        <v>0.07319188130530656</v>
       </c>
       <c r="T6">
-        <v>0.09689100177972486</v>
+        <v>0.05541263244155141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J7">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19330489563364</v>
+        <v>2.312813333333333</v>
       </c>
       <c r="N7">
-        <v>3.19330489563364</v>
+        <v>6.93844</v>
       </c>
       <c r="O7">
-        <v>0.4486947953063077</v>
+        <v>0.2584835377141118</v>
       </c>
       <c r="P7">
-        <v>0.4486947953063077</v>
+        <v>0.274740130058117</v>
       </c>
       <c r="Q7">
-        <v>2.10971776229221</v>
+        <v>1.579185860248889</v>
       </c>
       <c r="R7">
-        <v>2.10971776229221</v>
+        <v>14.21267274224</v>
       </c>
       <c r="S7">
-        <v>0.1816132244383139</v>
+        <v>0.07706714550634124</v>
       </c>
       <c r="T7">
-        <v>0.1816132244383139</v>
+        <v>0.08751981772641278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J8">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.681509189493235</v>
+        <v>3.371056333333333</v>
       </c>
       <c r="N8">
-        <v>0.681509189493235</v>
+        <v>10.113169</v>
       </c>
       <c r="O8">
-        <v>0.09575960839102952</v>
+        <v>0.3767543858015183</v>
       </c>
       <c r="P8">
-        <v>0.09575960839102952</v>
+        <v>0.4004492892292385</v>
       </c>
       <c r="Q8">
-        <v>0.450252039573549</v>
+        <v>2.301752769658222</v>
       </c>
       <c r="R8">
-        <v>0.450252039573549</v>
+        <v>20.715774926924</v>
       </c>
       <c r="S8">
-        <v>0.03875955645746402</v>
+        <v>0.1123297264014994</v>
       </c>
       <c r="T8">
-        <v>0.03875955645746402</v>
+        <v>0.1275650877598435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J9">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.53842693680656</v>
+        <v>0.824507</v>
       </c>
       <c r="N9">
-        <v>1.53842693680656</v>
+        <v>2.473521</v>
       </c>
       <c r="O9">
-        <v>0.2161660668381489</v>
+        <v>0.09214815703387902</v>
       </c>
       <c r="P9">
-        <v>0.2161660668381489</v>
+        <v>0.0979435552143542</v>
       </c>
       <c r="Q9">
-        <v>1.016391087179782</v>
+        <v>0.5629722802573334</v>
       </c>
       <c r="R9">
-        <v>1.016391087179782</v>
+        <v>5.066750522315999</v>
       </c>
       <c r="S9">
-        <v>0.08749514552720378</v>
+        <v>0.02747407238802824</v>
       </c>
       <c r="T9">
-        <v>0.08749514552720378</v>
+        <v>0.03120040053130881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.39166448274001</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
-        <v>0.39166448274001</v>
+        <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.2399532601863045</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J10">
-        <v>0.2399532601863045</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.70363425506568</v>
+        <v>0.8509326666666667</v>
       </c>
       <c r="N10">
-        <v>1.70363425506568</v>
+        <v>2.552798</v>
       </c>
       <c r="O10">
-        <v>0.2393795294645139</v>
+        <v>0.09510152975445622</v>
       </c>
       <c r="P10">
-        <v>0.2393795294645139</v>
+        <v>0.1010826719741183</v>
       </c>
       <c r="Q10">
-        <v>0.6672530292884618</v>
+        <v>0.5810156902231111</v>
       </c>
       <c r="R10">
-        <v>0.6672530292884618</v>
+        <v>5.229141212008</v>
       </c>
       <c r="S10">
-        <v>0.05743989851687364</v>
+        <v>0.02835462364945101</v>
       </c>
       <c r="T10">
-        <v>0.05743989851687364</v>
+        <v>0.03220038159187816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.39166448274001</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
-        <v>0.39166448274001</v>
+        <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.2399532601863045</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J11">
-        <v>0.2399532601863045</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.19330489563364</v>
+        <v>1.588314</v>
       </c>
       <c r="N11">
-        <v>3.19330489563364</v>
+        <v>3.176628</v>
       </c>
       <c r="O11">
-        <v>0.4486947953063077</v>
+        <v>0.1775123896960348</v>
       </c>
       <c r="P11">
-        <v>0.4486947953063077</v>
+        <v>0.1257843535241721</v>
       </c>
       <c r="Q11">
-        <v>1.250704110179491</v>
+        <v>1.084498681448</v>
       </c>
       <c r="R11">
-        <v>1.250704110179491</v>
+        <v>6.506992088687999</v>
       </c>
       <c r="S11">
-        <v>0.1076657789623751</v>
+        <v>0.052925510409152</v>
       </c>
       <c r="T11">
-        <v>0.1076657789623751</v>
+        <v>0.04006922356388744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H12">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I12">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J12">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.681509189493235</v>
+        <v>2.312813333333333</v>
       </c>
       <c r="N12">
-        <v>0.681509189493235</v>
+        <v>6.93844</v>
       </c>
       <c r="O12">
-        <v>0.09575960839102952</v>
+        <v>0.2584835377141118</v>
       </c>
       <c r="P12">
-        <v>0.09575960839102952</v>
+        <v>0.274740130058117</v>
       </c>
       <c r="Q12">
-        <v>0.2669229441854313</v>
+        <v>0.1692956231866667</v>
       </c>
       <c r="R12">
-        <v>0.2669229441854313</v>
+        <v>1.52366060868</v>
       </c>
       <c r="S12">
-        <v>0.02297783022759134</v>
+        <v>0.008261934680479758</v>
       </c>
       <c r="T12">
-        <v>0.02297783022759134</v>
+        <v>0.009382506806919691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.073199</v>
+      </c>
+      <c r="H13">
+        <v>0.219597</v>
+      </c>
+      <c r="I13">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J13">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.371056333333333</v>
+      </c>
+      <c r="N13">
+        <v>10.113169</v>
+      </c>
+      <c r="O13">
+        <v>0.3767543858015183</v>
+      </c>
+      <c r="P13">
+        <v>0.4004492892292385</v>
+      </c>
+      <c r="Q13">
+        <v>0.2467579525436667</v>
+      </c>
+      <c r="R13">
+        <v>2.220821572893</v>
+      </c>
+      <c r="S13">
+        <v>0.01204223740360265</v>
+      </c>
+      <c r="T13">
+        <v>0.01367553469973498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.073199</v>
+      </c>
+      <c r="H14">
+        <v>0.219597</v>
+      </c>
+      <c r="I14">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J14">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.824507</v>
+      </c>
+      <c r="N14">
+        <v>2.473521</v>
+      </c>
+      <c r="O14">
+        <v>0.09214815703387902</v>
+      </c>
+      <c r="P14">
+        <v>0.0979435552143542</v>
+      </c>
+      <c r="Q14">
+        <v>0.060353087893</v>
+      </c>
+      <c r="R14">
+        <v>0.5431777910369999</v>
+      </c>
+      <c r="S14">
+        <v>0.002945340585606415</v>
+      </c>
+      <c r="T14">
+        <v>0.003344819241725633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.073199</v>
+      </c>
+      <c r="H15">
+        <v>0.219597</v>
+      </c>
+      <c r="I15">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J15">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8509326666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.552798</v>
+      </c>
+      <c r="O15">
+        <v>0.09510152975445622</v>
+      </c>
+      <c r="P15">
+        <v>0.1010826719741183</v>
+      </c>
+      <c r="Q15">
+        <v>0.06228742026733333</v>
+      </c>
+      <c r="R15">
+        <v>0.560586782406</v>
+      </c>
+      <c r="S15">
+        <v>0.003039739527683365</v>
+      </c>
+      <c r="T15">
+        <v>0.003452021580022452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.073199</v>
+      </c>
+      <c r="H16">
+        <v>0.219597</v>
+      </c>
+      <c r="I16">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J16">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.588314</v>
+      </c>
+      <c r="N16">
+        <v>3.176628</v>
+      </c>
+      <c r="O16">
+        <v>0.1775123896960348</v>
+      </c>
+      <c r="P16">
+        <v>0.1257843535241721</v>
+      </c>
+      <c r="Q16">
+        <v>0.116262996486</v>
+      </c>
+      <c r="R16">
+        <v>0.6975779789159999</v>
+      </c>
+      <c r="S16">
+        <v>0.005673845930825168</v>
+      </c>
+      <c r="T16">
+        <v>0.004295595815925726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.449404</v>
+      </c>
+      <c r="I17">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J17">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.312813333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.93844</v>
+      </c>
+      <c r="O17">
+        <v>0.2584835377141118</v>
+      </c>
+      <c r="P17">
+        <v>0.274740130058117</v>
+      </c>
+      <c r="Q17">
+        <v>0.3464625210844444</v>
+      </c>
+      <c r="R17">
+        <v>3.11816268976</v>
+      </c>
+      <c r="S17">
+        <v>0.01690800189959938</v>
+      </c>
+      <c r="T17">
+        <v>0.01920124632420724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.449404</v>
+      </c>
+      <c r="I18">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J18">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.371056333333333</v>
+      </c>
+      <c r="N18">
+        <v>10.113169</v>
+      </c>
+      <c r="O18">
+        <v>0.3767543858015183</v>
+      </c>
+      <c r="P18">
+        <v>0.4004492892292385</v>
+      </c>
+      <c r="Q18">
+        <v>0.5049887334751111</v>
+      </c>
+      <c r="R18">
+        <v>4.544898601276</v>
+      </c>
+      <c r="S18">
+        <v>0.02464436972330518</v>
+      </c>
+      <c r="T18">
+        <v>0.02798690326461519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="H13">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="I13">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="J13">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.53842693680656</v>
-      </c>
-      <c r="N13">
-        <v>1.53842693680656</v>
-      </c>
-      <c r="O13">
-        <v>0.2161660668381489</v>
-      </c>
-      <c r="P13">
-        <v>0.2161660668381489</v>
-      </c>
-      <c r="Q13">
-        <v>0.6025471904376393</v>
-      </c>
-      <c r="R13">
-        <v>0.6025471904376393</v>
-      </c>
-      <c r="S13">
-        <v>0.05186975247946442</v>
-      </c>
-      <c r="T13">
-        <v>0.05186975247946442</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.449404</v>
+      </c>
+      <c r="I19">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J19">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.824507</v>
+      </c>
+      <c r="N19">
+        <v>2.473521</v>
+      </c>
+      <c r="O19">
+        <v>0.09214815703387902</v>
+      </c>
+      <c r="P19">
+        <v>0.0979435552143542</v>
+      </c>
+      <c r="Q19">
+        <v>0.1235122479426667</v>
+      </c>
+      <c r="R19">
+        <v>1.111610231484</v>
+      </c>
+      <c r="S19">
+        <v>0.006027622602011253</v>
+      </c>
+      <c r="T19">
+        <v>0.006845153378727699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.449404</v>
+      </c>
+      <c r="I20">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J20">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8509326666666667</v>
+      </c>
+      <c r="N20">
+        <v>2.552798</v>
+      </c>
+      <c r="O20">
+        <v>0.09510152975445622</v>
+      </c>
+      <c r="P20">
+        <v>0.1010826719741183</v>
+      </c>
+      <c r="Q20">
+        <v>0.1274708480435556</v>
+      </c>
+      <c r="R20">
+        <v>1.147237632392</v>
+      </c>
+      <c r="S20">
+        <v>0.006220809495116122</v>
+      </c>
+      <c r="T20">
+        <v>0.007064542348704262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.449404</v>
+      </c>
+      <c r="I21">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J21">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.588314</v>
+      </c>
+      <c r="N21">
+        <v>3.176628</v>
+      </c>
+      <c r="O21">
+        <v>0.1775123896960348</v>
+      </c>
+      <c r="P21">
+        <v>0.1257843535241721</v>
+      </c>
+      <c r="Q21">
+        <v>0.237931554952</v>
+      </c>
+      <c r="R21">
+        <v>1.427589329712</v>
+      </c>
+      <c r="S21">
+        <v>0.01161149312921649</v>
+      </c>
+      <c r="T21">
+        <v>0.008790912180313413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.440053</v>
+      </c>
+      <c r="H22">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J22">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.312813333333333</v>
+      </c>
+      <c r="N22">
+        <v>6.93844</v>
+      </c>
+      <c r="O22">
+        <v>0.2584835377141118</v>
+      </c>
+      <c r="P22">
+        <v>0.274740130058117</v>
+      </c>
+      <c r="Q22">
+        <v>1.017760445773333</v>
+      </c>
+      <c r="R22">
+        <v>6.106562674639999</v>
+      </c>
+      <c r="S22">
+        <v>0.04966856298513857</v>
+      </c>
+      <c r="T22">
+        <v>0.03760343053780726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.440053</v>
+      </c>
+      <c r="H23">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J23">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.371056333333333</v>
+      </c>
+      <c r="N23">
+        <v>10.113169</v>
+      </c>
+      <c r="O23">
+        <v>0.3767543858015183</v>
+      </c>
+      <c r="P23">
+        <v>0.4004492892292385</v>
+      </c>
+      <c r="Q23">
+        <v>1.483443452652333</v>
+      </c>
+      <c r="R23">
+        <v>8.900660715913999</v>
+      </c>
+      <c r="S23">
+        <v>0.07239474167908794</v>
+      </c>
+      <c r="T23">
+        <v>0.05480912827791345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.440053</v>
+      </c>
+      <c r="H24">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J24">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.824507</v>
+      </c>
+      <c r="N24">
+        <v>2.473521</v>
+      </c>
+      <c r="O24">
+        <v>0.09214815703387902</v>
+      </c>
+      <c r="P24">
+        <v>0.0979435552143542</v>
+      </c>
+      <c r="Q24">
+        <v>0.362826778871</v>
+      </c>
+      <c r="R24">
+        <v>2.176960673226</v>
+      </c>
+      <c r="S24">
+        <v>0.01770660747712208</v>
+      </c>
+      <c r="T24">
+        <v>0.01340544489933005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.440053</v>
+      </c>
+      <c r="H25">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J25">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8509326666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.552798</v>
+      </c>
+      <c r="O25">
+        <v>0.09510152975445622</v>
+      </c>
+      <c r="P25">
+        <v>0.1010826719741183</v>
+      </c>
+      <c r="Q25">
+        <v>0.3744554727646666</v>
+      </c>
+      <c r="R25">
+        <v>2.246732836588</v>
+      </c>
+      <c r="S25">
+        <v>0.01827410891372352</v>
+      </c>
+      <c r="T25">
+        <v>0.01383509294164875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.440053</v>
+      </c>
+      <c r="H26">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J26">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.588314</v>
+      </c>
+      <c r="N26">
+        <v>3.176628</v>
+      </c>
+      <c r="O26">
+        <v>0.1775123896960348</v>
+      </c>
+      <c r="P26">
+        <v>0.1257843535241721</v>
+      </c>
+      <c r="Q26">
+        <v>0.698942340642</v>
+      </c>
+      <c r="R26">
+        <v>2.795769362568</v>
+      </c>
+      <c r="S26">
+        <v>0.03410965892153455</v>
+      </c>
+      <c r="T26">
+        <v>0.01721598952249405</v>
       </c>
     </row>
   </sheetData>
